--- a/level-1/hackerearth-phase-1-4/hackerearth-phase-1-4.xlsx
+++ b/level-1/hackerearth-phase-1-4/hackerearth-phase-1-4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64071F54-2EDB-4067-8540-4FB8A619CAE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518D6AF-D3D5-4D1E-A957-CE873E49C1D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 1 - basic programming" sheetId="14" r:id="rId1"/>
@@ -657,6 +657,15 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,15 +692,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1182,86 +1182,86 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f>AVERAGE(C4:C147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H147)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>COUNTA(I4:I880)</f>
+        <f>COUNTA(I4:I851)</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J880)</f>
+        <f>COUNTA(J4:J851)</f>
         <v>135</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1361,11 +1361,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H71" si="0">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1382,11 +1382,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1403,11 +1403,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1424,11 +1424,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1445,11 +1445,11 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,11 +1466,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1487,11 +1487,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1508,11 +1508,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1529,11 +1529,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1550,11 +1550,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1571,11 +1571,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1592,11 +1592,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1613,11 +1613,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1655,11 +1655,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1676,11 +1676,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1697,11 +1697,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1718,11 +1718,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1739,11 +1739,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1760,11 +1760,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1781,11 +1781,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1823,11 +1823,11 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1844,11 +1844,11 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1865,11 +1865,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1886,11 +1886,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1907,11 +1907,11 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1928,11 +1928,11 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1949,11 +1949,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1970,11 +1970,11 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1991,11 +1991,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2012,11 +2012,11 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2033,11 +2033,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2054,11 +2054,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2075,11 +2075,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2096,11 +2096,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2117,11 +2117,11 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2138,11 +2138,11 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2159,11 +2159,11 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2180,11 +2180,11 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2201,11 +2201,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2222,11 +2222,11 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2243,11 +2243,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2264,11 +2264,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2285,11 +2285,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2306,11 +2306,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2327,11 +2327,11 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2348,11 +2348,11 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2369,11 +2369,11 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2390,11 +2390,11 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2411,11 +2411,11 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="20" t="s">
+      <c r="J58" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2432,11 +2432,11 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2453,11 +2453,11 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2474,11 +2474,11 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="20" t="s">
+      <c r="J61" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2495,11 +2495,11 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2516,11 +2516,11 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2537,11 +2537,11 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2558,11 +2558,11 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2579,11 +2579,11 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="20" t="s">
+      <c r="J66" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2600,11 +2600,11 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="20" t="s">
+      <c r="J67" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2621,11 +2621,11 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2642,11 +2642,11 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2663,11 +2663,11 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2684,11 +2684,11 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2705,11 +2705,11 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H137" si="2">SUM(C72:G72)</f>
+        <f t="shared" ref="H72:H108" si="1">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="20" t="s">
+      <c r="J72" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2726,11 +2726,11 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="20" t="s">
+      <c r="J73" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2747,10 +2747,10 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2767,10 +2767,10 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="12" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2807,10 +2807,10 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2827,10 +2827,10 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2847,10 +2847,10 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2867,10 +2867,10 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2887,10 +2887,10 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2907,10 +2907,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2927,10 +2927,10 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2947,10 +2947,10 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2967,10 +2967,10 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2987,10 +2987,10 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3007,10 +3007,10 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3027,10 +3027,10 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3047,10 +3047,10 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3067,10 +3067,10 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3087,16 +3087,16 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>1</v>
@@ -3107,56 +3107,56 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="21" t="s">
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="21" t="s">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="21" t="s">
-        <v>101</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1</v>
@@ -3167,36 +3167,36 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="21" t="s">
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1</v>
@@ -3207,16 +3207,16 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="21" t="s">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>1</v>
@@ -3227,19 +3227,19 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="21" t="s">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -3247,19 +3247,19 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="21" t="s">
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -3267,39 +3267,39 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="21" t="s">
-        <v>108</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="21" t="s">
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -3307,19 +3307,19 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="21" t="s">
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -3327,19 +3327,19 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="21" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -3347,19 +3347,19 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="21" t="s">
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -3367,19 +3367,19 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="21" t="s">
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -3387,59 +3387,59 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="21" t="s">
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="21" t="s">
-        <v>115</v>
+        <f t="shared" ref="H107" si="2">SUM(C107:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="21" t="s">
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -3447,11 +3447,11 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="21" t="s">
-        <v>117</v>
+        <f t="shared" ref="H109" si="3">SUM(C109:G109)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3459,7 +3459,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -3467,11 +3467,11 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="21" t="s">
-        <v>118</v>
+        <f>SUM(C110:G110)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3479,19 +3479,19 @@
         <v>106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="21" t="s">
-        <v>119</v>
+        <f>SUM(C111:G111)</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3499,19 +3499,19 @@
         <v>106</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="21" t="s">
-        <v>120</v>
+        <f>SUM(C112:G112)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3519,7 +3519,7 @@
         <v>106</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -3527,11 +3527,11 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="21" t="s">
-        <v>121</v>
+        <f>SUM(C113:G113)</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3539,19 +3539,19 @@
         <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="21" t="s">
-        <v>122</v>
+        <f>SUM(C114:G114)</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3559,7 +3559,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -3567,11 +3567,11 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="21" t="s">
-        <v>123</v>
+        <f>SUM(C115:G115)</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3579,7 +3579,7 @@
         <v>106</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -3587,11 +3587,11 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="21" t="s">
-        <v>124</v>
+        <f>SUM(C116:G116)</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3601,17 +3601,17 @@
       <c r="B117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="21" t="s">
-        <v>125</v>
+        <f>SUM(C117:G117)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3627,11 +3627,11 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>126</v>
+        <f>SUM(C118:G118)</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3641,17 +3641,17 @@
       <c r="B119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="21" t="s">
-        <v>127</v>
+        <f>SUM(C119:G119)</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3661,25 +3661,25 @@
       <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="21" t="s">
-        <v>128</v>
+        <f>SUM(C120:G120)</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3687,19 +3687,19 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="21" t="s">
-        <v>129</v>
+        <f>SUM(C121:G121)</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -3707,19 +3707,19 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="21" t="s">
-        <v>130</v>
+        <f>SUM(C122:G122)</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -3727,19 +3727,19 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="21" t="s">
-        <v>131</v>
+        <f>SUM(C123:G123)</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -3747,39 +3747,39 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="21" t="s">
-        <v>132</v>
+        <f>SUM(C124:G124)</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="21" t="s">
-        <v>133</v>
+        <f>SUM(C125:G125)</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -3787,19 +3787,19 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="21" t="s">
-        <v>134</v>
+        <f>SUM(C126:G126)</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -3807,19 +3807,19 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="21" t="s">
-        <v>135</v>
+        <f>SUM(C127:G127)</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3827,19 +3827,19 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="21" t="s">
-        <v>136</v>
+        <f>SUM(C128:G128)</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -3847,19 +3847,19 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="21" t="s">
-        <v>137</v>
+        <f>SUM(C129:G129)</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -3867,39 +3867,39 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="21" t="s">
-        <v>138</v>
+        <f>SUM(C130:G130)</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
       <c r="H131" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="21" t="s">
-        <v>139</v>
+        <f>SUM(C131:G131)</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -3907,19 +3907,19 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="21" t="s">
-        <v>140</v>
+        <f>SUM(C132:G132)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -3927,19 +3927,19 @@
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="21" t="s">
-        <v>10</v>
+        <f>SUM(C133:G133)</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -3947,39 +3947,39 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="21" t="s">
-        <v>11</v>
+        <f>SUM(C134:G134)</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
       <c r="H135" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="21" t="s">
-        <v>141</v>
+        <f>SUM(C135:G135)</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -3987,39 +3987,39 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="7">
-        <f t="shared" ref="H136" si="3">SUM(C136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="21" t="s">
-        <v>142</v>
+        <f>SUM(C136:G136)</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="21" t="s">
-        <v>143</v>
+        <f>SUM(C137:G137)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -4027,90 +4027,70 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="7">
-        <f t="shared" ref="H138" si="4">SUM(C138:G138)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="21" t="s">
-        <v>144</v>
+        <f>SUM(C138:G138)</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="7"/>
-      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="7"/>
-      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="7"/>
-      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="7"/>
-      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
-      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
       <c r="H144" s="7"/>
-      <c r="J144" s="21"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+    </row>
+    <row r="145" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
+    <row r="146" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -4118,266 +4098,13 @@
       <c r="G146" s="9"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
+    <row r="147" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="7"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="7"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="7"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="7"/>
-    </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="7"/>
-    </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="7"/>
-    </row>
-    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="7"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="7"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="7"/>
-    </row>
-    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="7"/>
-    </row>
-    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="7"/>
-    </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="7"/>
-    </row>
-    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
